--- a/Materia_2-PowerBi/IP - EX 09 - Funcoes e formulas do excel I (Anexo).xlsx
+++ b/Materia_2-PowerBi/IP - EX 09 - Funcoes e formulas do excel I (Anexo).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bianc\4)DNC\Repositorio\DNC_DataScience\Materia_2-PowerBi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CCB5F37-F328-487F-BD72-4DB0BF3B41A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D48ED3B-28C8-489B-B04E-E403355B52C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONTEÚDO" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -668,13 +668,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1455,7 +1461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:R22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1750,14 +1756,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q207"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1993,13 +2000,34 @@
       </c>
     </row>
     <row r="14" spans="2:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="N14" s="29"/>
+      <c r="B14" s="29">
+        <f>SUM(B8:B13)</f>
+        <v>199</v>
+      </c>
+      <c r="D14" s="29">
+        <f>PRODUCT(D8:D13)</f>
+        <v>36846000</v>
+      </c>
+      <c r="F14" s="45">
+        <f>AVERAGE(F8:F13)</f>
+        <v>33.166666666666664</v>
+      </c>
+      <c r="H14" s="45">
+        <f>MEDIAN(H8:H13)</f>
+        <v>21.5</v>
+      </c>
+      <c r="J14" s="29">
+        <f>MAX(J8:J13)</f>
+        <v>200</v>
+      </c>
+      <c r="L14" s="29">
+        <f>MIN(L8:L13)</f>
+        <v>3</v>
+      </c>
+      <c r="N14" s="29">
+        <f>INT(AVERAGE(N8:N13))</f>
+        <v>33</v>
+      </c>
     </row>
     <row r="15" spans="2:17" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="23" t="s">
@@ -2045,13 +2073,27 @@
       <c r="O19" s="20"/>
     </row>
     <row r="20" spans="1:17" s="18" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="47"/>
+      <c r="C20" s="19">
+        <f>DAY(C18)</f>
+        <v>30</v>
+      </c>
+      <c r="E20" s="19">
+        <f>MONTH(C18)</f>
+        <v>4</v>
+      </c>
+      <c r="G20" s="19">
+        <f>YEAR(C18)</f>
+        <v>2015</v>
+      </c>
+      <c r="I20" s="46">
+        <f ca="1">TODAY()</f>
+        <v>45712</v>
+      </c>
+      <c r="K20" s="47">
+        <v>45712.837417476854</v>
+      </c>
+      <c r="L20" s="48"/>
+      <c r="M20" s="49"/>
       <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:17" s="23" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
